--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_19-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_19-20.xlsx
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>2:3</t>
+  </si>
+  <si>
+    <t>KETOPREK 1MG/ML SYRUP 125 ML</t>
   </si>
   <si>
     <t>KETOPREK 75 MG 20 CAPS.</t>
@@ -2049,17 +2052,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2075,17 +2078,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2101,17 +2104,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2127,17 +2130,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2145,7 +2148,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2153,17 +2156,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2179,17 +2182,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2205,17 +2208,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2231,13 +2234,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2257,13 +2260,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2283,17 +2286,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2301,7 +2304,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2309,17 +2312,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2335,13 +2338,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2361,13 +2364,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2379,7 +2382,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2387,17 +2390,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2419,7 +2422,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2439,13 +2442,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2457,7 +2460,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2465,17 +2468,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2491,17 +2494,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2517,13 +2520,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2543,13 +2546,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2569,17 +2572,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2595,17 +2598,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2621,17 +2624,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20.399999999999999</v>
+        <v>69</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2639,7 +2642,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2647,13 +2650,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2665,7 +2668,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2673,17 +2676,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2699,17 +2702,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2725,17 +2728,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>149.5</v>
+        <v>175</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2751,13 +2754,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>39</v>
+        <v>149.5</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2783,11 +2786,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2803,13 +2806,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>-17.09</v>
+        <v>80</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2829,17 +2832,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>-17.09</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2855,13 +2858,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2881,17 +2884,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2907,17 +2910,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2933,13 +2936,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2959,13 +2962,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2985,13 +2988,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3011,17 +3014,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3029,7 +3032,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3037,17 +3040,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3063,17 +3066,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3089,17 +3092,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3107,7 +3110,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3115,13 +3118,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3141,13 +3144,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>50</v>
+        <v>-375</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3167,17 +3170,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3199,11 +3202,11 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3219,17 +3222,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>27.879999999999999</v>
+        <v>40</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3237,7 +3240,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3245,17 +3248,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>2</v>
+        <v>27.879999999999999</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3263,7 +3266,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3271,13 +3274,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3297,17 +3300,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3323,17 +3326,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3355,7 +3358,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3375,13 +3378,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3401,13 +3404,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3419,7 +3422,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3427,13 +3430,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3453,13 +3456,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3479,13 +3482,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3505,13 +3508,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3531,13 +3534,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3557,13 +3560,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3583,51 +3586,77 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="K104" s="10">
-        <v>4237.6400000000003</v>
-      </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="11">
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>135</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
         <v>136</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c t="s" r="F105" s="12">
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>45</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c t="s" r="N104" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" ht="26.25" customHeight="1">
+      <c r="K105" s="10">
+        <v>4264.6400000000003</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="11">
         <v>137</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="13"/>
-      <c t="s" r="I105" s="14">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c t="s" r="F106" s="12">
         <v>138</v>
       </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+      <c t="s" r="I106" s="14">
+        <v>139</v>
+      </c>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="311">
+  <mergeCells count="314">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3935,10 +3964,13 @@
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="I105:N105"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I106:N106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
